--- a/Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225666F-9C60-4382-94A0-E8E67DE698BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTNDY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,7 +750,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +779,7 @@
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,7 +808,7 @@
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,7 +837,7 @@
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +879,7 @@
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -902,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,7 +976,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1047,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1134,7 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1192,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1453,7 @@
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1476,12 +1511,12 @@
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,7 +1571,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1687,7 @@
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1745,7 @@
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1832,7 @@
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1919,7 @@
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +2003,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2416,7 +2451,7 @@
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,7 +2672,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2840,7 +2875,7 @@
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,18 +2888,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-147900</v>
+        <v>-85400</v>
       </c>
       <c r="E91" s="3">
-        <v>-197300</v>
+        <v>-131800</v>
       </c>
       <c r="F91" s="3">
-        <v>-137800</v>
+        <v>-71800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -2882,7 +2917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2969,7 +3004,7 @@
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3127,7 +3162,7 @@
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3156,7 +3191,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>

--- a/Financials/Quarterly/TTNDY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TTNDY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225666F-9C60-4382-94A0-E8E67DE698BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TTNDY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TTNDY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3728200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3590400</v>
+      </c>
+      <c r="F8" s="3">
         <v>3430800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3182000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2881600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2794800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2685700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2564000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2474000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2503000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2325500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2249400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2157200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2011600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1825800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1778300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1716900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1647700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1592600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1616800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1402700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1273600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1170400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1055800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1016500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>968800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>916300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>881400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,37 +840,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>103500</v>
+      </c>
+      <c r="F12" s="3">
         <v>99100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>86400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>77200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>76200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>71000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>62300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>65500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>61300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +906,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -936,8 +941,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -965,8 +976,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3396400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3251600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3136900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2888100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2645600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2538400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2480200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2340100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2287500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2307000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>331800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>338800</v>
+      </c>
+      <c r="F18" s="3">
         <v>293900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>293900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>256400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>205500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>223900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>186500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>196000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,66 +1077,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-12600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>462600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>442300</v>
+      </c>
+      <c r="F21" s="3">
         <v>393500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>392300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>325400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>254500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>284400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>232500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>266800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>208700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1124,75 +1169,93 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
         <v>10300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>306800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>319200</v>
+      </c>
+      <c r="F23" s="3">
         <v>275400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>282100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>223400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>246700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>193400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>213600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>173400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>176900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F24" s="3">
         <v>20700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>14800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>18100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>297800</v>
+      </c>
+      <c r="F26" s="3">
         <v>254800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>266100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>204400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>231900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>176900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>195500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>158600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>297700</v>
+      </c>
+      <c r="F27" s="3">
         <v>254700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>266000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>204400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>231900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>177000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>195700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>158700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F32" s="3">
         <v>18400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>12600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>297700</v>
+      </c>
+      <c r="F33" s="3">
         <v>254700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>266000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>204400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>231900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>177000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>195700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>158700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>297700</v>
+      </c>
+      <c r="F35" s="3">
         <v>254700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>266000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>204400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>231900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>177000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>195700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>158700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,269 +1707,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1103900</v>
+      </c>
+      <c r="F41" s="3">
         <v>863100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>863500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>818100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>804700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>743800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>774600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>725200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>690400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F42" s="3">
         <v>45500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>32300</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1414000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1267000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1154400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1145100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>977300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1011300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>887500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>938300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>862000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1961100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1766700</v>
+      </c>
+      <c r="F44" s="3">
         <v>1577700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1467400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1414700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1296400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1341400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1190300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1130900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1056300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>160600</v>
+      </c>
+      <c r="F45" s="3">
         <v>145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>116400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>103400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>118800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>116900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>139800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>146300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4767400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4225000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3898300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3634000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3481300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3197300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3214400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2993400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2941800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>16000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>14000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>14300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>15700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>17600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>18700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1201800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>790900</v>
+      </c>
+      <c r="F48" s="3">
         <v>699300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>688900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>624700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>601200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>566600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>538500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>507100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>425400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1142700</v>
+        <v>1222200</v>
       </c>
       <c r="E49" s="3">
-        <v>1135800</v>
+        <v>1230500</v>
       </c>
       <c r="F49" s="3">
-        <v>1120000</v>
+        <v>1172800</v>
       </c>
       <c r="G49" s="3">
-        <v>1099800</v>
+        <v>1166600</v>
       </c>
       <c r="H49" s="3">
-        <v>1086400</v>
+        <v>1150200</v>
       </c>
       <c r="I49" s="3">
+        <v>1129400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1117900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1074700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1060600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1050200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115600</v>
+        <v>86200</v>
       </c>
       <c r="E52" s="3">
-        <v>123800</v>
+        <v>83900</v>
       </c>
       <c r="F52" s="3">
-        <v>184400</v>
+        <v>85400</v>
       </c>
       <c r="G52" s="3">
-        <v>207800</v>
+        <v>92900</v>
       </c>
       <c r="H52" s="3">
-        <v>195300</v>
+        <v>154200</v>
       </c>
       <c r="I52" s="3">
+        <v>178200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K52" s="3">
         <v>178500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>124500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7296000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6348900</v>
+      </c>
+      <c r="F54" s="3">
         <v>5873600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5598500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5424400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5120400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5078500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4802700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4652700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4351400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,182 +2227,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>946600</v>
+        <v>1036100</v>
       </c>
       <c r="E57" s="3">
-        <v>808700</v>
+        <v>1127000</v>
       </c>
       <c r="F57" s="3">
-        <v>785700</v>
+        <v>991700</v>
       </c>
       <c r="G57" s="3">
-        <v>711400</v>
+        <v>863600</v>
       </c>
       <c r="H57" s="3">
-        <v>744600</v>
+        <v>829400</v>
       </c>
       <c r="I57" s="3">
+        <v>765600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>797600</v>
+      </c>
+      <c r="K57" s="3">
         <v>673200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>706300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>696500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>818400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>255500</v>
+      </c>
+      <c r="F58" s="3">
         <v>204100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>263200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>452300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>408500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>569500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>594300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>660800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>556900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1115500</v>
+        <v>1290500</v>
       </c>
       <c r="E59" s="3">
-        <v>1073600</v>
+        <v>1233500</v>
       </c>
       <c r="F59" s="3">
-        <v>949100</v>
+        <v>1070500</v>
       </c>
       <c r="G59" s="3">
-        <v>949800</v>
+        <v>1018600</v>
       </c>
       <c r="H59" s="3">
-        <v>921900</v>
+        <v>905400</v>
       </c>
       <c r="I59" s="3">
+        <v>895700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>868900</v>
+      </c>
+      <c r="K59" s="3">
         <v>801900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>725100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>693800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3145000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2616000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2266200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2145400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2187200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2069700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2236000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2069500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2092200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1947200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>540900</v>
+      </c>
+      <c r="F61" s="3">
         <v>560600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>573400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>551900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>501200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>495800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>467100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>407600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>333400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>134600</v>
+      </c>
+      <c r="F62" s="3">
         <v>140000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>138900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>153500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>150500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>114100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>110600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>103600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>103800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4115100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3291100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2966400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2857300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2891900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2720900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2845400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2646700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2603300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2384200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2702600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2570200</v>
+      </c>
+      <c r="F72" s="3">
         <v>2392400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2241100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2042300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1912500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1735600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1610100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1451100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1336100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3180900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3057800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2907200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2741200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2532600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2399500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2233100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2156000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2049400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1967200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>297700</v>
+      </c>
+      <c r="F81" s="3">
         <v>254700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>266000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>204400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>231900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>177000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>195700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>158700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>164100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,25 +3032,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>123100</v>
+      </c>
+      <c r="F83" s="3">
         <v>118100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>110200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>102000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>10</v>
@@ -2700,8 +3063,14 @@
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>602000</v>
+      </c>
+      <c r="F89" s="3">
         <v>191600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>493700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>104600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>458300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>125300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>275900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>59300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>389000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,25 +3292,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-173700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-85400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-131800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-71800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -2916,8 +3323,14 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-305700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-284100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-139600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-212500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-134100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-158800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-127600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-146000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-174900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-123100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,26 +3447,28 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-93800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-65500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-70800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3045,8 +3478,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>485400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-43600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-246100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>29100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-222200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-20700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-59800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>152700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-217300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>12500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>13200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-18800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>240800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>47600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>59200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-26900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>51300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>31700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>40600</v>
       </c>
     </row>
